--- a/biology/Botanique/Liste_des_espèces_du_genre_Indigofera/Liste_des_espèces_du_genre_Indigofera.xlsx
+++ b/biology/Botanique/Liste_des_espèces_du_genre_Indigofera/Liste_des_espèces_du_genre_Indigofera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Indigofera</t>
+          <t>Liste_des_espèces_du_genre_Indigofera</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La liste des espèces du genre Indigofera  comprend près de 670 noms d'espèces acceptées, ce qui fait de ce genre l'un des plus importants de la famille des Fabaceae, après les genres  Astragalus (plus de 2 400 espèces) et Acacia (plus de 950 espèces). Selon la base de données The Plant List, 1325  espèces rattachées au genre Indigofera ont été décrites, mais seuls 665 épithètes désignent des espèces acceptées (y compris quelques sous-espèces et variétés), tandis que 450 sont considérées comme des synonymes, et 210 comme mal appliquées[1].
-Ce genre, composé de nombreuses plantes herbacées annuelles ou vivaces, mais aussi d'arbustes ou de petits arbres, est présent dans toutes les régions tropicales et subtropicales du Nouveau et de l'Ancien Monde. Certaines espèces sont importantes sur le plan économique, notamment Indigofera arrecta, Indigofera suffruticosa et  Indigofera tinctoria, cette dernière étant largement utilisée pour la production traditionnelle de la teinture indigo[2].
+La liste des espèces du genre Indigofera  comprend près de 670 noms d'espèces acceptées, ce qui fait de ce genre l'un des plus importants de la famille des Fabaceae, après les genres  Astragalus (plus de 2 400 espèces) et Acacia (plus de 950 espèces). Selon la base de données The Plant List, 1325  espèces rattachées au genre Indigofera ont été décrites, mais seuls 665 épithètes désignent des espèces acceptées (y compris quelques sous-espèces et variétés), tandis que 450 sont considérées comme des synonymes, et 210 comme mal appliquées.
+Ce genre, composé de nombreuses plantes herbacées annuelles ou vivaces, mais aussi d'arbustes ou de petits arbres, est présent dans toutes les régions tropicales et subtropicales du Nouveau et de l'Ancien Monde. Certaines espèces sont importantes sur le plan économique, notamment Indigofera arrecta, Indigofera suffruticosa et  Indigofera tinctoria, cette dernière étant largement utilisée pour la production traditionnelle de la teinture indigo.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Indigofera</t>
+          <t>Liste_des_espèces_du_genre_Indigofera</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Liste des espèces acceptées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (2 janvier 2019)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (2 janvier 2019) :
 Indigofera acanthinocarpa Blatt.
 Indigofera acanthoclada Dinter
 Indigofera accepta N.E.Br.
